--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1325.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1325.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055980382219362</v>
+        <v>0.9609408974647522</v>
       </c>
       <c r="B1">
-        <v>2.534152936314468</v>
+        <v>1.803401470184326</v>
       </c>
       <c r="C1">
-        <v>4.956826595184298</v>
+        <v>7.17421817779541</v>
       </c>
       <c r="D1">
-        <v>2.280091701692648</v>
+        <v>3.159863948822021</v>
       </c>
       <c r="E1">
-        <v>1.229211057078761</v>
+        <v>1.482699275016785</v>
       </c>
     </row>
   </sheetData>
